--- a/data/trans_orig/ACT_OCIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ACT_OCIO-Estudios-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el tiempo libre en Andalucia</t>
+          <t>Actividad principal en el tiempo libre en Andalucia (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3059,7 +3059,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el tiempo libre en C.Valenciana</t>
+          <t>Actividad principal en el tiempo libre en C.Valenciana (tasa de respuesta: 97,41%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ACT_OCIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ACT_OCIO-Estudios-trans_orig.xlsx
@@ -739,12 +739,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6493</t>
+          <t>6278</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19973</t>
+          <t>19722</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7843</t>
+          <t>7624</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18238</t>
+          <t>18547</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -809,12 +809,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16540</t>
+          <t>16395</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>33188</t>
+          <t>34016</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -824,12 +824,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4857</t>
+          <t>5081</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17006</t>
+          <t>16852</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3758</t>
+          <t>4026</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11583</t>
+          <t>12626</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -922,12 +922,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>10966</t>
+          <t>10803</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>25144</t>
+          <t>24670</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,97%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63604</t>
+          <t>63269</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>89884</t>
+          <t>90513</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>39,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>111337</t>
+          <t>111966</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>139609</t>
+          <t>139294</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>35,54%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>184204</t>
+          <t>183009</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>222729</t>
+          <t>221290</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>35,63%</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>116312</t>
+          <t>116603</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>144277</t>
+          <t>144536</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,94%</t>
+          <t>51,07%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,19%</t>
+          <t>63,3%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,12 +1113,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>233872</t>
+          <t>234002</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>261794</t>
+          <t>263216</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1128,12 +1128,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>59,54%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>67,01%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>357700</t>
+          <t>358008</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>398907</t>
+          <t>399243</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>57,59%</t>
+          <t>57,64%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>64,22%</t>
+          <t>64,28%</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>118333</t>
+          <t>115148</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>269259</t>
+          <t>267284</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>18,98%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62090</t>
+          <t>58625</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>125857</t>
+          <t>124817</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>210819</t>
+          <t>212505</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>369448</t>
+          <t>373764</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,38%</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77077</t>
+          <t>77050</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>177896</t>
+          <t>179378</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30007</t>
+          <t>30866</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>68037</t>
+          <t>65536</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>128623</t>
+          <t>128935</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>232081</t>
+          <t>238196</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,53%</t>
         </is>
       </c>
     </row>
@@ -1534,12 +1534,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>554144</t>
+          <t>557177</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>984210</t>
+          <t>1007079</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,35%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,88%</t>
+          <t>71,51%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>665503</t>
+          <t>670755</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1019871</t>
+          <t>1008824</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1584,12 +1584,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>48,08%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>73,68%</t>
+          <t>72,88%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,12 +1604,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>1287659</t>
+          <t>1286097</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1856743</t>
+          <t>1877771</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>46,11%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>66,49%</t>
+          <t>67,24%</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>204777</t>
+          <t>202385</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>439836</t>
+          <t>436250</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1662,12 +1662,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,54%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>271360</t>
+          <t>282484</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>538441</t>
+          <t>539395</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1697,12 +1697,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>38,9%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>571787</t>
+          <t>553892</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>936696</t>
+          <t>934385</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>19,83%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>33,46%</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>84236</t>
+          <t>84930</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>124356</t>
+          <t>123281</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,36%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>26,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>56118</t>
+          <t>56750</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>85020</t>
+          <t>83683</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>18,87%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>148537</t>
+          <t>149000</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>197411</t>
+          <t>200100</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1962,12 +1962,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>16,47%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>22,18%</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>55996</t>
+          <t>57699</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92565</t>
+          <t>92283</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2005,12 +2005,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36153</t>
+          <t>36009</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62133</t>
+          <t>62526</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2040,12 +2040,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2060,12 +2060,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>98879</t>
+          <t>98823</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>142796</t>
+          <t>144945</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2075,12 +2075,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,07%</t>
         </is>
       </c>
     </row>
@@ -2103,12 +2103,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>158895</t>
+          <t>156847</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>201970</t>
+          <t>201364</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>44,03%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>183847</t>
+          <t>183481</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>219854</t>
+          <t>219577</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2153,12 +2153,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>41,47%</t>
+          <t>41,38%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>49,59%</t>
+          <t>49,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,12 +2173,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>354495</t>
+          <t>353421</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>410742</t>
+          <t>414577</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>45,53%</t>
+          <t>45,96%</t>
         </is>
       </c>
     </row>
@@ -2216,12 +2216,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85954</t>
+          <t>85586</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>124748</t>
+          <t>123655</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2231,12 +2231,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,74%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,19%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2251,12 +2251,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>108653</t>
+          <t>107977</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>141086</t>
+          <t>142961</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2266,12 +2266,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,35%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>205155</t>
+          <t>203489</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>252834</t>
+          <t>255012</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>28,27%</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>217184</t>
+          <t>209863</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>376301</t>
+          <t>388162</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2461,12 +2461,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2481,12 +2481,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>129067</t>
+          <t>125312</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>208201</t>
+          <t>208940</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2496,12 +2496,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>387633</t>
+          <t>402564</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>574460</t>
+          <t>573719</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,31%</t>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -2559,12 +2559,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>141594</t>
+          <t>155160</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>263633</t>
+          <t>263764</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>76217</t>
+          <t>75322</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>129488</t>
+          <t>127944</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2609,12 +2609,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>252573</t>
+          <t>256270</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>373568</t>
+          <t>374790</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2644,12 +2644,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -2672,12 +2672,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>808370</t>
+          <t>801955</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1369417</t>
+          <t>1344726</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2687,12 +2687,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>38,27%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>65,35%</t>
+          <t>64,17%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>982592</t>
+          <t>987182</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1418311</t>
+          <t>1434784</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2722,12 +2722,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>63,88%</t>
+          <t>64,62%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2742,12 +2742,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1853030</t>
+          <t>1837891</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>2639404</t>
+          <t>2514946</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2757,12 +2757,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>42,93%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>61,16%</t>
+          <t>58,27%</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>373291</t>
+          <t>390421</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>680783</t>
+          <t>678140</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2820,12 +2820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>585482</t>
+          <t>582826</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>917854</t>
+          <t>915806</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2835,47 +2835,47 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
+          <t>26,25%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>41,24%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1868</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1395223</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1138098</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1569889</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>32,33%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
           <t>26,37%</t>
         </is>
       </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>41,34%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>1868</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>1395223</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>1076443</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>1554924</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>32,33%</t>
-        </is>
-      </c>
-      <c r="V22" s="2" t="inlineStr">
-        <is>
-          <t>24,94%</t>
-        </is>
-      </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>36,03%</t>
+          <t>36,37%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ACT_OCIO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/ACT_OCIO-Estudios-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11743</t>
+          <t>13261</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6278</t>
+          <t>7804</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19722</t>
+          <t>21995</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12135</t>
+          <t>12986</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7624</t>
+          <t>8270</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18547</t>
+          <t>19813</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>23878</t>
+          <t>26247</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>16395</t>
+          <t>18252</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>34016</t>
+          <t>37112</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,42%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9511</t>
+          <t>11023</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5081</t>
+          <t>5994</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16852</t>
+          <t>19011</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7103</t>
+          <t>7773</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>4383</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12626</t>
+          <t>13610</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>16614</t>
+          <t>18796</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>10803</t>
+          <t>12100</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>24670</t>
+          <t>27754</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76267</t>
+          <t>85656</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63269</t>
+          <t>72274</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>90513</t>
+          <t>100486</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>125911</t>
+          <t>140754</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>111966</t>
+          <t>126663</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>139294</t>
+          <t>156092</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>32,75%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>28,51%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>202178</t>
+          <t>226411</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>183009</t>
+          <t>206048</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>221290</t>
+          <t>246292</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>32,55%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>35,94%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>130814</t>
+          <t>145491</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>116603</t>
+          <t>129035</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>144536</t>
+          <t>159931</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,29%</t>
+          <t>56,96%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>50,52%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>63,3%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>247634</t>
+          <t>268278</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>234002</t>
+          <t>252998</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>263216</t>
+          <t>283922</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>63,05%</t>
+          <t>62,42%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>67,01%</t>
+          <t>66,06%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1143,32 +1143,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>378447</t>
+          <t>413769</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>358008</t>
+          <t>393189</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>399243</t>
+          <t>436524</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>60,93%</t>
+          <t>60,38%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>57,38%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>63,71%</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>228335</t>
+          <t>255431</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>228335</t>
+          <t>255431</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>228335</t>
+          <t>255431</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>392782</t>
+          <t>429791</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>392782</t>
+          <t>429791</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>392782</t>
+          <t>429791</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>621117</t>
+          <t>685222</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>621117</t>
+          <t>685222</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>621117</t>
+          <t>685222</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>206857</t>
+          <t>213828</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>115148</t>
+          <t>183195</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>267284</t>
+          <t>248919</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>96444</t>
+          <t>111367</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58625</t>
+          <t>93260</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>124817</t>
+          <t>133431</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>303301</t>
+          <t>325195</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>212505</t>
+          <t>285657</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>373764</t>
+          <t>366297</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>14,34%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>136072</t>
+          <t>151427</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77050</t>
+          <t>124392</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>179378</t>
+          <t>185416</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,74%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49884</t>
+          <t>56412</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30866</t>
+          <t>43940</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>65536</t>
+          <t>72183</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>185957</t>
+          <t>207838</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>128935</t>
+          <t>177257</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>238196</t>
+          <t>243724</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>715246</t>
+          <t>534497</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>557177</t>
+          <t>494633</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1007079</t>
+          <t>573943</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,78%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>71,51%</t>
+          <t>44,6%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>800507</t>
+          <t>602264</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>670755</t>
+          <t>566521</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1008824</t>
+          <t>636986</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>57,83%</t>
+          <t>47,48%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>44,66%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>72,88%</t>
+          <t>50,22%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>1515753</t>
+          <t>1136762</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>1286097</t>
+          <t>1085893</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1877771</t>
+          <t>1192726</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>54,28%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>46,05%</t>
+          <t>42,5%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>46,68%</t>
         </is>
       </c>
     </row>
@@ -1642,32 +1642,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>350227</t>
+          <t>386991</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>202385</t>
+          <t>351177</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>436250</t>
+          <t>423701</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>437420</t>
+          <t>498384</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>282484</t>
+          <t>465379</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>539395</t>
+          <t>532739</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>36,69%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1712,32 +1712,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>787647</t>
+          <t>885375</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>553892</t>
+          <t>832202</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>934385</t>
+          <t>936432</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>33,46%</t>
+          <t>36,65%</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1408403</t>
+          <t>1286743</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1408403</t>
+          <t>1286743</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1408403</t>
+          <t>1286743</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1384255</t>
+          <t>1268427</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1384255</t>
+          <t>1268427</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1384255</t>
+          <t>1268427</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1825,17 +1825,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>2792658</t>
+          <t>2555170</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2792658</t>
+          <t>2555170</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>2792658</t>
+          <t>2555170</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>102869</t>
+          <t>113331</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>84930</t>
+          <t>92671</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>123281</t>
+          <t>135713</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>22,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>69262</t>
+          <t>72784</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>56750</t>
+          <t>60148</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>83683</t>
+          <t>87973</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>172131</t>
+          <t>186115</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>149000</t>
+          <t>161952</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>200100</t>
+          <t>215205</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>22,18%</t>
+          <t>21,42%</t>
         </is>
       </c>
     </row>
@@ -1985,32 +1985,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71948</t>
+          <t>79598</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>57699</t>
+          <t>63301</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>92283</t>
+          <t>100381</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>12,44%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,12%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2020,32 +2020,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>47198</t>
+          <t>51097</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36009</t>
+          <t>39641</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>62526</t>
+          <t>66884</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2055,32 +2055,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>119146</t>
+          <t>130694</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>98823</t>
+          <t>108700</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>144945</t>
+          <t>157971</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>15,72%</t>
         </is>
       </c>
     </row>
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>179763</t>
+          <t>202077</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>156847</t>
+          <t>177141</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>201364</t>
+          <t>225912</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>39,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,19%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>43,89%</t>
+          <t>44,41%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>201957</t>
+          <t>229977</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>183481</t>
+          <t>209749</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>219577</t>
+          <t>249208</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>46,38%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>41,38%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>49,52%</t>
+          <t>50,25%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>381720</t>
+          <t>432055</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>353421</t>
+          <t>400896</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>414577</t>
+          <t>465903</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>39,9%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>45,96%</t>
+          <t>46,37%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>104171</t>
+          <t>113744</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85586</t>
+          <t>93242</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>123655</t>
+          <t>135031</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,71%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>124957</t>
+          <t>142048</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>107977</t>
+          <t>124926</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>142961</t>
+          <t>161717</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>229128</t>
+          <t>255792</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>203489</t>
+          <t>226320</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>255012</t>
+          <t>282919</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>28,16%</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>458751</t>
+          <t>508751</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>458751</t>
+          <t>508751</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>458751</t>
+          <t>508751</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>902125</t>
+          <t>1004657</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>902125</t>
+          <t>1004657</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>902125</t>
+          <t>1004657</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2441,32 +2441,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>321469</t>
+          <t>340420</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>209863</t>
+          <t>297558</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>388162</t>
+          <t>388152</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,32 +2476,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>177841</t>
+          <t>197137</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>125312</t>
+          <t>174807</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>208940</t>
+          <t>220631</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,32 +2511,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>499310</t>
+          <t>537557</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>402564</t>
+          <t>486106</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>573719</t>
+          <t>584616</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>13,77%</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>217531</t>
+          <t>242047</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>155160</t>
+          <t>208254</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>263764</t>
+          <t>284765</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>104186</t>
+          <t>115282</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>75322</t>
+          <t>97829</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>127944</t>
+          <t>139682</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,32 +2624,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>321717</t>
+          <t>357329</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>256270</t>
+          <t>317781</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>374790</t>
+          <t>401306</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>9,45%</t>
         </is>
       </c>
     </row>
@@ -2667,32 +2667,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>971277</t>
+          <t>822231</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>801955</t>
+          <t>775946</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1344726</t>
+          <t>875711</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>46,35%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,27%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>64,17%</t>
+          <t>42,7%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2702,32 +2702,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1128374</t>
+          <t>972996</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>987182</t>
+          <t>930372</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1434784</t>
+          <t>1014089</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>50,82%</t>
+          <t>44,35%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>46,22%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2737,32 +2737,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>2099651</t>
+          <t>1795227</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>1837891</t>
+          <t>1731927</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>2514946</t>
+          <t>1862354</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>48,65%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>58,27%</t>
+          <t>43,87%</t>
         </is>
       </c>
     </row>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>585212</t>
+          <t>646226</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>390421</t>
+          <t>605854</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>678140</t>
+          <t>692193</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>27,93%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>810010</t>
+          <t>908710</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>582826</t>
+          <t>863501</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>915806</t>
+          <t>951315</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>36,48%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>39,36%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>43,36%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1395223</t>
+          <t>1554936</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>1138098</t>
+          <t>1493490</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>1569889</t>
+          <t>1619653</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>32,33%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>38,15%</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2095489</t>
+          <t>2050924</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2095489</t>
+          <t>2050924</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2095489</t>
+          <t>2050924</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2220411</t>
+          <t>2194124</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>2220411</t>
+          <t>2194124</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>2220411</t>
+          <t>2194124</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>4315900</t>
+          <t>4245049</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4315900</t>
+          <t>4245049</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>4315900</t>
+          <t>4245049</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
